--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/10.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/10.xlsx
@@ -479,13 +479,13 @@
         <v>-19.19324581899469</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.76564941631022</v>
+        <v>-12.9608195581257</v>
       </c>
       <c r="F2" t="n">
-        <v>2.433856384437784</v>
+        <v>-2.407559375706941</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.18590915417574</v>
+        <v>-10.604702554123</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-19.01589718632046</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.38649950936771</v>
+        <v>-13.42293857153011</v>
       </c>
       <c r="F3" t="n">
-        <v>2.536002531208931</v>
+        <v>-2.32412212969662</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.89442212370755</v>
+        <v>-10.58621622251048</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-18.79752294252626</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.94779271679819</v>
+        <v>-13.71889007726733</v>
       </c>
       <c r="F4" t="n">
-        <v>2.409111932066922</v>
+        <v>-2.500082679889418</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.61310781254739</v>
+        <v>-10.68591410865023</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-18.54826228314219</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.52998123956406</v>
+        <v>-14.10334555021461</v>
       </c>
       <c r="F5" t="n">
-        <v>2.614058840751301</v>
+        <v>-2.217459138445078</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.38857481881178</v>
+        <v>-10.68460487836605</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-18.2851769854407</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.29792335504835</v>
+        <v>-14.73169753280042</v>
       </c>
       <c r="F6" t="n">
-        <v>2.592011402765835</v>
+        <v>-2.298945631331981</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.877830992653209</v>
+        <v>-10.7629361262681</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-18.01113797285823</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.86135060784203</v>
+        <v>-15.07361611381493</v>
       </c>
       <c r="F7" t="n">
-        <v>2.666951744231875</v>
+        <v>-2.131599816409039</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.695861075456058</v>
+        <v>-11.08088270077942</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-17.73774400524496</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.67413386055923</v>
+        <v>-15.60127519524502</v>
       </c>
       <c r="F8" t="n">
-        <v>2.976820367889847</v>
+        <v>-1.892115412828185</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.069237276845366</v>
+        <v>-10.55372112685732</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-17.46526165156562</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.51462042608951</v>
+        <v>-16.35269482454304</v>
       </c>
       <c r="F9" t="n">
-        <v>3.014578569285386</v>
+        <v>-1.784339575835096</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.423472531480069</v>
+        <v>-10.21889857398302</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-17.18936737279206</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.16393318552492</v>
+        <v>-17.13217125883089</v>
       </c>
       <c r="F10" t="n">
-        <v>3.295146619183575</v>
+        <v>-1.72854018112366</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.778584970405168</v>
+        <v>-9.816179338571521</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-16.91323124879677</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.13608904073444</v>
+        <v>-18.1337847954343</v>
       </c>
       <c r="F11" t="n">
-        <v>3.444974932904288</v>
+        <v>-1.585951910874421</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.457731904662987</v>
+        <v>-9.639917665413362</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-16.62534827900288</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.06772421864883</v>
+        <v>-18.83940754939197</v>
       </c>
       <c r="F12" t="n">
-        <v>3.750811127287009</v>
+        <v>-1.530767854396546</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.865030262715206</v>
+        <v>-9.208932148166582</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-16.31651147503477</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.68843029637506</v>
+        <v>-19.25072842777048</v>
       </c>
       <c r="F13" t="n">
-        <v>3.741463223058017</v>
+        <v>-1.688503919033661</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.138760947176136</v>
+        <v>-8.606319632967615</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-15.99546920833933</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.63306613101128</v>
+        <v>-20.14863783356457</v>
       </c>
       <c r="F14" t="n">
-        <v>4.151592701877927</v>
+        <v>-1.150528102964296</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.338376105250054</v>
+        <v>-7.673113378712222</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-15.6586735080805</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.52698238443865</v>
+        <v>-20.89267340405987</v>
       </c>
       <c r="F15" t="n">
-        <v>4.222107844983464</v>
+        <v>-1.094244293047715</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.986729943224134</v>
+        <v>-7.323850015803496</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-15.31913328954165</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.3314651171542</v>
+        <v>-21.45692547193258</v>
       </c>
       <c r="F16" t="n">
-        <v>4.398565902684248</v>
+        <v>-1.005596310506388</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.555705149068829</v>
+        <v>-6.791399151533339</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-14.984598682932</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.24498054793563</v>
+        <v>-22.26940760168441</v>
       </c>
       <c r="F17" t="n">
-        <v>4.747083004330996</v>
+        <v>-0.8215185325517194</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.493804741233148</v>
+        <v>-6.65684955522892</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-14.66264258953344</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.16111443928541</v>
+        <v>-23.34600075666239</v>
       </c>
       <c r="F18" t="n">
-        <v>4.589373124299564</v>
+        <v>-0.7512259585944921</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.204307740796901</v>
+        <v>-6.338366196301092</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-14.36898496237448</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.88229084901905</v>
+        <v>-23.84020900433187</v>
       </c>
       <c r="F19" t="n">
-        <v>4.823411129898259</v>
+        <v>-0.4043061178944348</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.180388103505067</v>
+        <v>-6.325575016424725</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-14.10281256119675</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.29245960474749</v>
+        <v>-24.36798591648753</v>
       </c>
       <c r="F20" t="n">
-        <v>5.037967788868466</v>
+        <v>-0.06614502779549218</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.850475164196412</v>
+        <v>-6.024438958762184</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-13.86066729063176</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.9486458231748</v>
+        <v>-25.09828766130185</v>
       </c>
       <c r="F21" t="n">
-        <v>4.948730652699261</v>
+        <v>0.01098172824511609</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.879343691962418</v>
+        <v>-5.726484330690182</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-13.64678832569045</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.44485719317906</v>
+        <v>-25.65653036217021</v>
       </c>
       <c r="F22" t="n">
-        <v>5.109189916327455</v>
+        <v>0.3644739049717199</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.861813098457347</v>
+        <v>-5.936825268145353</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-13.44967371935255</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.86530340663825</v>
+        <v>-26.20291143666396</v>
       </c>
       <c r="F23" t="n">
-        <v>5.083240972095155</v>
+        <v>0.4394404310434434</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.951534649831696</v>
+        <v>-5.689616405887882</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-13.26779686480359</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.29136621801654</v>
+        <v>-26.47743084264927</v>
       </c>
       <c r="F24" t="n">
-        <v>5.299866214914355</v>
+        <v>0.6998201499596914</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.216850166919275</v>
+        <v>-5.765447023947159</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-13.0924702762317</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.37181841897895</v>
+        <v>-26.75336421734149</v>
       </c>
       <c r="F25" t="n">
-        <v>5.102722318723643</v>
+        <v>0.5966004343555231</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.910398634302993</v>
+        <v>-5.463067197514654</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-12.91632103631562</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.71327876939401</v>
+        <v>-27.29048903372615</v>
       </c>
       <c r="F26" t="n">
-        <v>5.213561754581696</v>
+        <v>1.126563761085753</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.937093839797272</v>
+        <v>-5.577546293562706</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-12.74297203612684</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.64038082717127</v>
+        <v>-27.07877340447259</v>
       </c>
       <c r="F27" t="n">
-        <v>5.240400975407234</v>
+        <v>0.9917785033301828</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.853132901673283</v>
+        <v>-5.561167822707707</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-12.56618288932094</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.93356985700889</v>
+        <v>-27.26425205883133</v>
       </c>
       <c r="F28" t="n">
-        <v>4.998062449806885</v>
+        <v>0.8128067234837875</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.98448797608432</v>
+        <v>-5.586265767255296</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-12.38403802211511</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.98567722231896</v>
+        <v>-27.17007912449079</v>
       </c>
       <c r="F29" t="n">
-        <v>5.107645024592132</v>
+        <v>0.9739467868597519</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.056377810988238</v>
+        <v>-5.640101316540473</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-12.20296682343706</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.64038082717127</v>
+        <v>-26.85671485597408</v>
       </c>
       <c r="F30" t="n">
-        <v>4.954046127653002</v>
+        <v>0.8625836588880299</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.204281556191217</v>
+        <v>-5.70105907857155</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-12.02015935841352</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.4385106096547</v>
+        <v>-26.58548161800204</v>
       </c>
       <c r="F31" t="n">
-        <v>4.945248100143361</v>
+        <v>0.6783356809964189</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.097697118756725</v>
+        <v>-5.671719227903242</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-11.842990047199</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.14096184297079</v>
+        <v>-26.35960011707374</v>
       </c>
       <c r="F32" t="n">
-        <v>4.930375244115161</v>
+        <v>0.7238445256742588</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.353546900889737</v>
+        <v>-5.845035132922011</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-11.67118532523767</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.94534974621256</v>
+        <v>-26.199847837799</v>
       </c>
       <c r="F33" t="n">
-        <v>4.987850453590339</v>
+        <v>0.7941632842371695</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.700636941526736</v>
+        <v>-6.266947684299476</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-11.50633754408735</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.4560380198059</v>
+        <v>-25.77985985493927</v>
       </c>
       <c r="F34" t="n">
-        <v>4.951794251564225</v>
+        <v>0.7327734762123159</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.921530275072338</v>
+        <v>-6.334477782357099</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-11.35764320565137</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.13104778636573</v>
+        <v>-25.35765927289928</v>
       </c>
       <c r="F35" t="n">
-        <v>4.918461248529191</v>
+        <v>0.6963506897066341</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.085969598764418</v>
+        <v>-6.443916341811088</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.22357184148798</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.87038003678696</v>
+        <v>-25.0783480840739</v>
       </c>
       <c r="F36" t="n">
-        <v>4.957659603237318</v>
+        <v>0.6546647974585782</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.137081949058516</v>
+        <v>-6.347622454410192</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-11.10659777668365</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.4122279911436</v>
+        <v>-24.74238650085237</v>
       </c>
       <c r="F37" t="n">
-        <v>4.769680319035816</v>
+        <v>0.3860369277520428</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.49277363266253</v>
+        <v>-6.401209249941377</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-11.01223074026517</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.89455833678175</v>
+        <v>-24.09345341819937</v>
       </c>
       <c r="F38" t="n">
-        <v>5.147419440625296</v>
+        <v>0.8721672245681734</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.455395108049403</v>
+        <v>-6.311055652573251</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-10.93848354297985</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.51750001494004</v>
+        <v>-23.76335718665094</v>
       </c>
       <c r="F39" t="n">
-        <v>5.110106377526376</v>
+        <v>0.7217104803110574</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.722609009049031</v>
+        <v>-6.441612096510943</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-10.89038500454021</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.958982375712</v>
+        <v>-23.308726970472</v>
       </c>
       <c r="F40" t="n">
-        <v>5.181616535647884</v>
+        <v>0.5932488048280412</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.657278417868818</v>
+        <v>-6.069829972714448</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-10.86300018611911</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.48907344211677</v>
+        <v>-22.80369138835241</v>
       </c>
       <c r="F41" t="n">
-        <v>5.358781577702121</v>
+        <v>0.7791725974833932</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.93505780726172</v>
+        <v>-6.320979618127279</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.8538217178041</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.95547045519654</v>
+        <v>-22.44839247383365</v>
       </c>
       <c r="F42" t="n">
-        <v>5.345375059592194</v>
+        <v>0.8315679934559809</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.028772511002796</v>
+        <v>-6.369473507853033</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.86498742324773</v>
       </c>
       <c r="E43" t="n">
-        <v>-22.33002496384161</v>
+        <v>-21.80917387988922</v>
       </c>
       <c r="F43" t="n">
-        <v>5.279704068538096</v>
+        <v>0.793705053637709</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.956882676098878</v>
+        <v>-6.068101788739341</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.88816837524853</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.05356789703572</v>
+        <v>-21.6790494819453</v>
       </c>
       <c r="F44" t="n">
-        <v>5.401305377332048</v>
+        <v>0.7373034129955531</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.906568956278124</v>
+        <v>-5.87467610655568</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.91975533213177</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.34969951165884</v>
+        <v>-20.81059775754509</v>
       </c>
       <c r="F45" t="n">
-        <v>5.276535731250398</v>
+        <v>0.6208211946127163</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.9324786236019</v>
+        <v>-5.964332196415819</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.95601614822207</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.79738762397779</v>
+        <v>-20.36638901442817</v>
       </c>
       <c r="F46" t="n">
-        <v>5.02275453296638</v>
+        <v>0.356631615569526</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.956529183922151</v>
+        <v>-6.015418362104235</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.99182504079463</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.00415117940329</v>
+        <v>-19.45180001481371</v>
       </c>
       <c r="F47" t="n">
-        <v>5.278709053522125</v>
+        <v>0.6960364744384326</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.051251994982039</v>
+        <v>-5.864621217973234</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-11.03006514002549</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.29738939509839</v>
+        <v>-18.87607908965164</v>
       </c>
       <c r="F48" t="n">
-        <v>5.149069070783353</v>
+        <v>0.4499666425281912</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.240907093947283</v>
+        <v>-6.22480356145196</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-11.06444260335785</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.78373907770895</v>
+        <v>-18.31195794480735</v>
       </c>
       <c r="F49" t="n">
-        <v>5.25265537086709</v>
+        <v>0.5282455212188714</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.48845635607864</v>
+        <v>-6.57281006328788</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-11.09365870318713</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.19586849550977</v>
+        <v>-17.80872910047993</v>
       </c>
       <c r="F50" t="n">
-        <v>5.113772222322059</v>
+        <v>0.5063944677760305</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.381230395804903</v>
+        <v>-6.466945702509683</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-11.12171975378654</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.73707492702716</v>
+        <v>-17.30531696391272</v>
       </c>
       <c r="F51" t="n">
-        <v>5.271351179325075</v>
+        <v>0.5957625269736526</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.66322550671284</v>
+        <v>-6.698522355174134</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-11.14445608563493</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.45650687712897</v>
+        <v>-16.80720720999641</v>
       </c>
       <c r="F52" t="n">
-        <v>5.142915688447742</v>
+        <v>0.4296735731235157</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.685652621480718</v>
+        <v>-6.674655087093668</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.16463613786515</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.53495277240271</v>
+        <v>-15.77605743818206</v>
       </c>
       <c r="F53" t="n">
-        <v>5.183292350411625</v>
+        <v>0.4718700651823989</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.778346125600138</v>
+        <v>-6.668658812392157</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.18261094425706</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.86491489756886</v>
+        <v>-14.9826769782763</v>
       </c>
       <c r="F54" t="n">
-        <v>5.037863050445732</v>
+        <v>0.3734159478126188</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.207537997357602</v>
+        <v>-7.096620007682499</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.19710513334802</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.48107476285513</v>
+        <v>-14.44208270163859</v>
       </c>
       <c r="F55" t="n">
-        <v>5.117123851849541</v>
+        <v>0.3986317230857833</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.458923304221584</v>
+        <v>-7.289770751506484</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-11.21249777939976</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.3756686326764</v>
+        <v>-14.34912735146234</v>
       </c>
       <c r="F56" t="n">
-        <v>4.952553605129045</v>
+        <v>0.2012652577467628</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.641377636623878</v>
+        <v>-7.295086226460224</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.22333401118599</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.02466399348972</v>
+        <v>-13.87333997389117</v>
       </c>
       <c r="F57" t="n">
-        <v>5.000104849050194</v>
+        <v>0.4011716298370781</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.529294431995861</v>
+        <v>-7.121678675321562</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-11.22840612077147</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.82859366613203</v>
+        <v>-13.73536019424222</v>
       </c>
       <c r="F58" t="n">
-        <v>4.890234243602429</v>
+        <v>0.2828303044507162</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.752976426046752</v>
+        <v>-7.452076029835362</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-11.23102823035997</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.18576159660328</v>
+        <v>-13.16445723652591</v>
       </c>
       <c r="F59" t="n">
-        <v>4.915947526383579</v>
+        <v>0.2617647891783789</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.123881365552851</v>
+        <v>-7.970177730190987</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-11.22587879465003</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.89073964436782</v>
+        <v>-12.51650607658605</v>
       </c>
       <c r="F60" t="n">
-        <v>5.031159791390769</v>
+        <v>0.4236249292106383</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.159008014077202</v>
+        <v>-7.962793671388254</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.21405274793954</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.74993192730506</v>
+        <v>-12.44969605518472</v>
       </c>
       <c r="F61" t="n">
-        <v>4.992537498007676</v>
+        <v>0.402179737155891</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.325306444772806</v>
+        <v>-8.214702670365906</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-11.19418113086954</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.4210532799209</v>
+        <v>-12.10721450514801</v>
       </c>
       <c r="F62" t="n">
-        <v>4.937157056987175</v>
+        <v>0.3762569775292734</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.468012545747621</v>
+        <v>-8.204896535537452</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-11.16345328498532</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.94021227345283</v>
+        <v>-11.50221919083185</v>
       </c>
       <c r="F63" t="n">
-        <v>4.80741233582567</v>
+        <v>0.07091829065453803</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.550350038319236</v>
+        <v>-8.25661113176227</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.12488415356554</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.87503878990672</v>
+        <v>-11.25870235797574</v>
       </c>
       <c r="F64" t="n">
-        <v>4.753445863512075</v>
+        <v>0.0926515133718033</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.395062234313523</v>
+        <v>-8.181278021210979</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.0734930710012</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.70271789990392</v>
+        <v>-11.10236716974269</v>
       </c>
       <c r="F65" t="n">
-        <v>4.656379530243518</v>
+        <v>-0.06101284508153556</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.513848697996504</v>
+        <v>-8.477596111427765</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.00704968790721</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.72827407505097</v>
+        <v>-11.1905700139874</v>
       </c>
       <c r="F66" t="n">
-        <v>4.696965669052869</v>
+        <v>-0.02862248785110526</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.646460633480347</v>
+        <v>-8.531065076233373</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.92927192528248</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.65224707244906</v>
+        <v>-10.92801697279942</v>
       </c>
       <c r="F67" t="n">
-        <v>4.59730705982165</v>
+        <v>-0.3259486853867043</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.619843981803118</v>
+        <v>-8.363156292288236</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.83475677732683</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.35227622973944</v>
+        <v>-10.81437578413324</v>
       </c>
       <c r="F68" t="n">
-        <v>4.349338843999358</v>
+        <v>-0.4883587021383162</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.628288517136031</v>
+        <v>-8.290624934545075</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.72405783500865</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.34258792563656</v>
+        <v>-10.72246781818433</v>
       </c>
       <c r="F69" t="n">
-        <v>4.294822494966411</v>
+        <v>-0.6748847407243874</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.53013552273161</v>
+        <v>-8.147172572308282</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.5969780837597</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.4342209532258</v>
+        <v>-10.85744946048252</v>
       </c>
       <c r="F70" t="n">
-        <v>4.218494369399147</v>
+        <v>-0.7081915591537385</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.608780985901859</v>
+        <v>-8.171550440199576</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.45179879744832</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.52728104182479</v>
+        <v>-11.13173320501668</v>
       </c>
       <c r="F71" t="n">
-        <v>4.183983059108358</v>
+        <v>-0.6987389165020124</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.532649244877222</v>
+        <v>-7.902150124625378</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.29366786964105</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.50395055816083</v>
+        <v>-10.971561972051</v>
       </c>
       <c r="F72" t="n">
-        <v>3.983199502727647</v>
+        <v>-0.9338766755394126</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.562303310813732</v>
+        <v>-7.841022162657359</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.12120995230363</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.66901831238932</v>
+        <v>-11.15632054975344</v>
       </c>
       <c r="F73" t="n">
-        <v>3.854973488695782</v>
+        <v>-1.06257401247358</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.211691440712308</v>
+        <v>-7.353477897134322</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.935337383760476</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.9726157229861</v>
+        <v>-11.53165068762005</v>
       </c>
       <c r="F74" t="n">
-        <v>3.888489783970601</v>
+        <v>-1.075208084715845</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.92825617649178</v>
+        <v>-7.0766018766375</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.745455627963256</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.22373918379325</v>
+        <v>-11.84299874149913</v>
       </c>
       <c r="F75" t="n">
-        <v>3.758718878203412</v>
+        <v>-1.232433549542134</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.653592755175209</v>
+        <v>-6.554729593063457</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.552042852255893</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.39200145991511</v>
+        <v>-11.9998707141487</v>
       </c>
       <c r="F76" t="n">
-        <v>3.631802094455719</v>
+        <v>-1.4122432367704</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.631113271195965</v>
+        <v>-6.438561589948821</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.362043118990012</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.74288826837621</v>
+        <v>-12.2896688375503</v>
       </c>
       <c r="F77" t="n">
-        <v>3.775529395052188</v>
+        <v>-1.374903989065797</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.507953978363848</v>
+        <v>-6.22412276170419</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.180386621689152</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.96752600053455</v>
+        <v>-12.75284832748489</v>
       </c>
       <c r="F78" t="n">
-        <v>3.641883167643848</v>
+        <v>-1.48294167211572</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.21480422543476</v>
+        <v>-5.731865267158132</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.010063728602884</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.30571327523917</v>
+        <v>-13.04552675751167</v>
       </c>
       <c r="F79" t="n">
-        <v>3.391401229675945</v>
+        <v>-1.820291039438476</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.239993816102241</v>
+        <v>-5.756910842494354</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.858989273294773</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.79473697098333</v>
+        <v>-13.60090224405769</v>
       </c>
       <c r="F80" t="n">
-        <v>3.600459121452627</v>
+        <v>-1.528411239885035</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.150416280059151</v>
+        <v>-5.562516329900405</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.72674674468656</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.26709416520996</v>
+        <v>-14.04080361953969</v>
       </c>
       <c r="F81" t="n">
-        <v>3.517087336956516</v>
+        <v>-1.649056810571541</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.07342044704696</v>
+        <v>-5.376959121724622</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.612566242720314</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.92706405915853</v>
+        <v>-14.73271873242207</v>
       </c>
       <c r="F82" t="n">
-        <v>3.56597399576752</v>
+        <v>-1.591359031948054</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.966495609738583</v>
+        <v>-5.325296894711171</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.52088583971417</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.64774296138418</v>
+        <v>-15.23042262495029</v>
       </c>
       <c r="F83" t="n">
-        <v>3.604674842967663</v>
+        <v>-1.653992608742871</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.942903280017793</v>
+        <v>-5.264574794131245</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.445934817230572</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.46530490463861</v>
+        <v>-16.0521217359027</v>
       </c>
       <c r="F84" t="n">
-        <v>3.62824098808277</v>
+        <v>-1.67977135303823</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.599937314775937</v>
+        <v>-5.033809864242981</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.386638368077531</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.7991618104565</v>
+        <v>-17.53591169386404</v>
       </c>
       <c r="F85" t="n">
-        <v>3.573122393119103</v>
+        <v>-1.702617421497042</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.271975128590699</v>
+        <v>-4.652051405681091</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.337544687598999</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.79989816276952</v>
+        <v>-18.67973382393428</v>
       </c>
       <c r="F86" t="n">
-        <v>3.519182105411192</v>
+        <v>-1.716141770332545</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.898831405298664</v>
+        <v>-4.274469391725711</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.292961936002499</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.85272878808976</v>
+        <v>-19.61913273743381</v>
       </c>
       <c r="F87" t="n">
-        <v>3.421251680155081</v>
+        <v>-1.937296949934982</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.790937737579999</v>
+        <v>-4.11927323383989</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.252162922653708</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.23356087650377</v>
+        <v>-21.12400130297033</v>
       </c>
       <c r="F88" t="n">
-        <v>3.370610652763284</v>
+        <v>-2.015903136196705</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.476958130829725</v>
+        <v>-3.779253036737422</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.208930569190937</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.77483913624313</v>
+        <v>-22.59132114395678</v>
       </c>
       <c r="F89" t="n">
-        <v>3.493180791967524</v>
+        <v>-1.987937977326778</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.600968423346554</v>
+        <v>-3.998287263279499</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.159718704826346</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.16304219115703</v>
+        <v>-23.95183397836042</v>
       </c>
       <c r="F90" t="n">
-        <v>3.472835353351481</v>
+        <v>-1.965851262432786</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.522257498662097</v>
+        <v>-3.828506280027996</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.107377044534598</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.62503346488689</v>
+        <v>-25.4959401755136</v>
       </c>
       <c r="F91" t="n">
-        <v>3.382891232828823</v>
+        <v>-2.014751013546633</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.367231540713219</v>
+        <v>-3.667719708828758</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.048490984906756</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.33473110838222</v>
+        <v>-27.16786652531054</v>
       </c>
       <c r="F92" t="n">
-        <v>3.427143216433858</v>
+        <v>-2.008780923450806</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.523789298094579</v>
+        <v>-3.872561879090404</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.9856800487701</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.27791688075688</v>
+        <v>-29.03729026347492</v>
       </c>
       <c r="F93" t="n">
-        <v>3.460502404074576</v>
+        <v>-1.87592023421297</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.840321903898991</v>
+        <v>-4.372098694016462</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.917685828335372</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.40185498616442</v>
+        <v>-31.27373052720141</v>
       </c>
       <c r="F94" t="n">
-        <v>3.411275345389686</v>
+        <v>-1.892691474153221</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.645848837487992</v>
+        <v>-4.214257890956612</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.844545292679729</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.35145598693153</v>
+        <v>-32.90408881547587</v>
       </c>
       <c r="F95" t="n">
-        <v>3.21910652427883</v>
+        <v>-1.952811328802427</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.878237212928629</v>
+        <v>-4.539169570579729</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.769936448322328</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.82975036105323</v>
+        <v>-35.30415668011825</v>
       </c>
       <c r="F96" t="n">
-        <v>3.189910688941781</v>
+        <v>-1.665448373729382</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.116425478528152</v>
+        <v>-5.137461625840927</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.691342443760202</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.13550127602382</v>
+        <v>-37.54658012624341</v>
       </c>
       <c r="F97" t="n">
-        <v>3.171843311020199</v>
+        <v>-1.5628832732673</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.473256192479395</v>
+        <v>-5.637522132880654</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.607411793937446</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.39683000745242</v>
+        <v>-39.71477021525598</v>
       </c>
       <c r="F98" t="n">
-        <v>2.701593977551082</v>
+        <v>-1.8750823268311</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.526816803404897</v>
+        <v>-5.662057108406048</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.521207949667613</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.70836772027905</v>
+        <v>-41.89437679234654</v>
       </c>
       <c r="F99" t="n">
-        <v>2.626496528450941</v>
+        <v>-1.968207876944297</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.817596849519632</v>
+        <v>-6.215311641891708</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.42975310904946</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.99665350325878</v>
+        <v>-44.25659480947349</v>
       </c>
       <c r="F100" t="n">
-        <v>2.370123054204262</v>
+        <v>-2.109185793944004</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.848023361323804</v>
+        <v>-6.442790403766699</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.333435010921403</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.09982721635934</v>
+        <v>-46.12230033363083</v>
       </c>
       <c r="F101" t="n">
-        <v>2.07216842613226</v>
+        <v>-2.113597900001665</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.76516217663852</v>
+        <v>-6.830937906115351</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.233086022971911</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.70667491208394</v>
+        <v>-48.76292617068708</v>
       </c>
       <c r="F102" t="n">
-        <v>1.883089388492052</v>
+        <v>-1.874755019260056</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.946320371059484</v>
+        <v>-7.406829031214357</v>
       </c>
     </row>
   </sheetData>
